--- a/ConvertedEqual/Oregon_Converted.xlsx
+++ b/ConvertedEqual/Oregon_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="275">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -804,6 +804,42 @@
   </si>
   <si>
     <t>9/29/2020</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1201,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z221"/>
+  <dimension ref="A1:Z233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1515,7 +1551,7 @@
         <v>0.5</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1542,7 +1578,7 @@
         <v>0.3333333333</v>
       </c>
       <c r="Z7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -2507,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -2587,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -2667,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -2747,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -2827,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -2907,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -2987,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -3067,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -3147,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -3227,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -3307,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -3387,7 +3423,7 @@
         <v>1</v>
       </c>
       <c r="Z31">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="32" spans="1:26">
@@ -3467,7 +3503,7 @@
         <v>1</v>
       </c>
       <c r="Z32">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="33" spans="1:26">
@@ -3547,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="Z33">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="34" spans="1:26">
@@ -3627,7 +3663,7 @@
         <v>1</v>
       </c>
       <c r="Z34">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="35" spans="1:26">
@@ -3707,7 +3743,7 @@
         <v>1</v>
       </c>
       <c r="Z35">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="36" spans="1:26">
@@ -3787,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="Z36">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="37" spans="1:26">
@@ -3867,7 +3903,7 @@
         <v>1</v>
       </c>
       <c r="Z37">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="38" spans="1:26">
@@ -3947,7 +3983,7 @@
         <v>1</v>
       </c>
       <c r="Z38">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="39" spans="1:26">
@@ -4027,7 +4063,7 @@
         <v>1</v>
       </c>
       <c r="Z39">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="40" spans="1:26">
@@ -4107,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="Z40">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="41" spans="1:26">
@@ -4187,7 +4223,7 @@
         <v>1</v>
       </c>
       <c r="Z41">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="42" spans="1:26">
@@ -4267,7 +4303,7 @@
         <v>1</v>
       </c>
       <c r="Z42">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="43" spans="1:26">
@@ -4347,7 +4383,7 @@
         <v>1</v>
       </c>
       <c r="Z43">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="44" spans="1:26">
@@ -4427,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="Z44">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="45" spans="1:26">
@@ -4507,7 +4543,7 @@
         <v>1</v>
       </c>
       <c r="Z45">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="46" spans="1:26">
@@ -4587,7 +4623,7 @@
         <v>1</v>
       </c>
       <c r="Z46">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="47" spans="1:26">
@@ -4667,7 +4703,7 @@
         <v>1</v>
       </c>
       <c r="Z47">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="48" spans="1:26">
@@ -4747,7 +4783,7 @@
         <v>1</v>
       </c>
       <c r="Z48">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="49" spans="1:26">
@@ -4827,7 +4863,7 @@
         <v>1</v>
       </c>
       <c r="Z49">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="50" spans="1:26">
@@ -4907,7 +4943,7 @@
         <v>1</v>
       </c>
       <c r="Z50">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="51" spans="1:26">
@@ -4987,7 +5023,7 @@
         <v>1</v>
       </c>
       <c r="Z51">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="52" spans="1:26">
@@ -5067,7 +5103,7 @@
         <v>1</v>
       </c>
       <c r="Z52">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="53" spans="1:26">
@@ -5147,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="Z53">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="54" spans="1:26">
@@ -5227,7 +5263,7 @@
         <v>1</v>
       </c>
       <c r="Z54">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="55" spans="1:26">
@@ -5307,7 +5343,7 @@
         <v>1</v>
       </c>
       <c r="Z55">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="56" spans="1:26">
@@ -5387,7 +5423,7 @@
         <v>1</v>
       </c>
       <c r="Z56">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="57" spans="1:26">
@@ -5467,7 +5503,7 @@
         <v>1</v>
       </c>
       <c r="Z57">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="58" spans="1:26">
@@ -5547,7 +5583,7 @@
         <v>1</v>
       </c>
       <c r="Z58">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="59" spans="1:26">
@@ -5627,7 +5663,7 @@
         <v>1</v>
       </c>
       <c r="Z59">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="60" spans="1:26">
@@ -5707,7 +5743,7 @@
         <v>1</v>
       </c>
       <c r="Z60">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="61" spans="1:26">
@@ -5787,7 +5823,7 @@
         <v>1</v>
       </c>
       <c r="Z61">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="62" spans="1:26">
@@ -5867,7 +5903,7 @@
         <v>1</v>
       </c>
       <c r="Z62">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="63" spans="1:26">
@@ -5947,7 +5983,7 @@
         <v>1</v>
       </c>
       <c r="Z63">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="64" spans="1:26">
@@ -6027,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="Z64">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="65" spans="1:26">
@@ -6107,7 +6143,7 @@
         <v>1</v>
       </c>
       <c r="Z65">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="66" spans="1:26">
@@ -6187,7 +6223,7 @@
         <v>1</v>
       </c>
       <c r="Z66">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="67" spans="1:26">
@@ -6267,7 +6303,7 @@
         <v>1</v>
       </c>
       <c r="Z67">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="68" spans="1:26">
@@ -6347,7 +6383,7 @@
         <v>1</v>
       </c>
       <c r="Z68">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="69" spans="1:26">
@@ -6427,7 +6463,7 @@
         <v>1</v>
       </c>
       <c r="Z69">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="70" spans="1:26">
@@ -6507,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="Z70">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="71" spans="1:26">
@@ -6587,7 +6623,7 @@
         <v>1</v>
       </c>
       <c r="Z71">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="72" spans="1:26">
@@ -6667,7 +6703,7 @@
         <v>1</v>
       </c>
       <c r="Z72">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="73" spans="1:26">
@@ -6747,7 +6783,7 @@
         <v>1</v>
       </c>
       <c r="Z73">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="74" spans="1:26">
@@ -6827,7 +6863,7 @@
         <v>1</v>
       </c>
       <c r="Z74">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="75" spans="1:26">
@@ -6907,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="Z75">
-        <v>0.7948717948615387</v>
+        <v>0.7777777777666669</v>
       </c>
     </row>
     <row r="76" spans="1:26">
@@ -6987,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="Z76">
-        <v>0.7948717948615387</v>
+        <v>0.7777777777666669</v>
       </c>
     </row>
     <row r="77" spans="1:26">
@@ -7067,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="Z77">
-        <v>0.7948717948615387</v>
+        <v>0.7777777777666669</v>
       </c>
     </row>
     <row r="78" spans="1:26">
@@ -7147,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="Z78">
-        <v>0.7948717948615387</v>
+        <v>0.7777777777666669</v>
       </c>
     </row>
     <row r="79" spans="1:26">
@@ -7227,7 +7263,7 @@
         <v>0</v>
       </c>
       <c r="Z79">
-        <v>0.7948717948615387</v>
+        <v>0.7777777777666669</v>
       </c>
     </row>
     <row r="80" spans="1:26">
@@ -7307,7 +7343,7 @@
         <v>0</v>
       </c>
       <c r="Z80">
-        <v>0.7948717948615387</v>
+        <v>0.7777777777666669</v>
       </c>
     </row>
     <row r="81" spans="1:26">
@@ -7387,7 +7423,7 @@
         <v>0</v>
       </c>
       <c r="Z81">
-        <v>0.7948717948615387</v>
+        <v>0.7777777777666669</v>
       </c>
     </row>
     <row r="82" spans="1:26">
@@ -7467,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="Z82">
-        <v>0.7948717948615387</v>
+        <v>0.7777777777666669</v>
       </c>
     </row>
     <row r="83" spans="1:26">
@@ -7547,7 +7583,7 @@
         <v>0</v>
       </c>
       <c r="Z83">
-        <v>0.7948717948615387</v>
+        <v>0.7777777777666669</v>
       </c>
     </row>
     <row r="84" spans="1:26">
@@ -7627,7 +7663,7 @@
         <v>0</v>
       </c>
       <c r="Z84">
-        <v>0.7948717948615387</v>
+        <v>0.7777777777666669</v>
       </c>
     </row>
     <row r="85" spans="1:26">
@@ -7707,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="Z85">
-        <v>0.6282051282</v>
+        <v>0.5972222222166667</v>
       </c>
     </row>
     <row r="86" spans="1:26">
@@ -7787,7 +7823,7 @@
         <v>0</v>
       </c>
       <c r="Z86">
-        <v>0.6282051282</v>
+        <v>0.5972222222166667</v>
       </c>
     </row>
     <row r="87" spans="1:26">
@@ -7867,7 +7903,7 @@
         <v>0</v>
       </c>
       <c r="Z87">
-        <v>0.6282051282</v>
+        <v>0.5972222222166667</v>
       </c>
     </row>
     <row r="88" spans="1:26">
@@ -7947,7 +7983,7 @@
         <v>0</v>
       </c>
       <c r="Z88">
-        <v>0.6282051282</v>
+        <v>0.5972222222166667</v>
       </c>
     </row>
     <row r="89" spans="1:26">
@@ -8027,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="Z89">
-        <v>0.6282051282</v>
+        <v>0.5972222222166667</v>
       </c>
     </row>
     <row r="90" spans="1:26">
@@ -8107,7 +8143,7 @@
         <v>0</v>
       </c>
       <c r="Z90">
-        <v>0.6282051282</v>
+        <v>0.5972222222166667</v>
       </c>
     </row>
     <row r="91" spans="1:26">
@@ -8187,7 +8223,7 @@
         <v>0</v>
       </c>
       <c r="Z91">
-        <v>0.6282051282</v>
+        <v>0.5972222222166667</v>
       </c>
     </row>
     <row r="92" spans="1:26">
@@ -8267,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="Z92">
-        <v>0.6282051282</v>
+        <v>0.5972222222166667</v>
       </c>
     </row>
     <row r="93" spans="1:26">
@@ -8347,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="Z93">
-        <v>0.6282051282</v>
+        <v>0.5972222222166667</v>
       </c>
     </row>
     <row r="94" spans="1:26">
@@ -8427,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="Z94">
-        <v>0.6282051282</v>
+        <v>0.5972222222166667</v>
       </c>
     </row>
     <row r="95" spans="1:26">
@@ -8507,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="Z95">
-        <v>0.6282051282</v>
+        <v>0.5972222222166667</v>
       </c>
     </row>
     <row r="96" spans="1:26">
@@ -8587,7 +8623,7 @@
         <v>0</v>
       </c>
       <c r="Z96">
-        <v>0.6282051282</v>
+        <v>0.5972222222166667</v>
       </c>
     </row>
     <row r="97" spans="1:26">
@@ -8667,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="Z97">
-        <v>0.6282051282</v>
+        <v>0.5972222222166667</v>
       </c>
     </row>
     <row r="98" spans="1:26">
@@ -8747,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="Z98">
-        <v>0.6282051282</v>
+        <v>0.5972222222166667</v>
       </c>
     </row>
     <row r="99" spans="1:26">
@@ -8827,7 +8863,7 @@
         <v>0</v>
       </c>
       <c r="Z99">
-        <v>0.6282051282</v>
+        <v>0.5972222222166667</v>
       </c>
     </row>
     <row r="100" spans="1:26">
@@ -8907,7 +8943,7 @@
         <v>0</v>
       </c>
       <c r="Z100">
-        <v>0.6282051282</v>
+        <v>0.5972222222166667</v>
       </c>
     </row>
     <row r="101" spans="1:26">
@@ -8987,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="Z101">
-        <v>0.7051282051230768</v>
+        <v>0.6805555555499999</v>
       </c>
     </row>
     <row r="102" spans="1:26">
@@ -9067,7 +9103,7 @@
         <v>0</v>
       </c>
       <c r="Z102">
-        <v>0.7051282051230768</v>
+        <v>0.6805555555499999</v>
       </c>
     </row>
     <row r="103" spans="1:26">
@@ -9147,7 +9183,7 @@
         <v>0</v>
       </c>
       <c r="Z103">
-        <v>0.7051282051230768</v>
+        <v>0.6805555555499999</v>
       </c>
     </row>
     <row r="104" spans="1:26">
@@ -9227,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Z104">
-        <v>0.7051282051230768</v>
+        <v>0.6805555555499999</v>
       </c>
     </row>
     <row r="105" spans="1:26">
@@ -9307,7 +9343,7 @@
         <v>0</v>
       </c>
       <c r="Z105">
-        <v>0.7051282051230768</v>
+        <v>0.6805555555499999</v>
       </c>
     </row>
     <row r="106" spans="1:26">
@@ -9387,7 +9423,7 @@
         <v>0</v>
       </c>
       <c r="Z106">
-        <v>0.7051282051230768</v>
+        <v>0.6805555555499999</v>
       </c>
     </row>
     <row r="107" spans="1:26">
@@ -9467,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="Z107">
-        <v>0.7051282051230768</v>
+        <v>0.6805555555499999</v>
       </c>
     </row>
     <row r="108" spans="1:26">
@@ -9547,7 +9583,7 @@
         <v>0</v>
       </c>
       <c r="Z108">
-        <v>0.7051282051230768</v>
+        <v>0.6805555555499999</v>
       </c>
     </row>
     <row r="109" spans="1:26">
@@ -9627,7 +9663,7 @@
         <v>0</v>
       </c>
       <c r="Z109">
-        <v>0.5256410256384615</v>
+        <v>0.5694444444416666</v>
       </c>
     </row>
     <row r="110" spans="1:26">
@@ -9707,7 +9743,7 @@
         <v>0</v>
       </c>
       <c r="Z110">
-        <v>0.5256410256384615</v>
+        <v>0.5694444444416666</v>
       </c>
     </row>
     <row r="111" spans="1:26">
@@ -9787,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="Z111">
-        <v>0.5256410256384615</v>
+        <v>0.5694444444416666</v>
       </c>
     </row>
     <row r="112" spans="1:26">
@@ -9867,7 +9903,7 @@
         <v>0</v>
       </c>
       <c r="Z112">
-        <v>0.5256410256384615</v>
+        <v>0.5694444444416666</v>
       </c>
     </row>
     <row r="113" spans="1:26">
@@ -9947,7 +9983,7 @@
         <v>0</v>
       </c>
       <c r="Z113">
-        <v>0.5256410256384615</v>
+        <v>0.5694444444416666</v>
       </c>
     </row>
     <row r="114" spans="1:26">
@@ -10027,7 +10063,7 @@
         <v>0</v>
       </c>
       <c r="Z114">
-        <v>0.5256410256384615</v>
+        <v>0.5694444444416666</v>
       </c>
     </row>
     <row r="115" spans="1:26">
@@ -10107,7 +10143,7 @@
         <v>0</v>
       </c>
       <c r="Z115">
-        <v>0.5256410256384615</v>
+        <v>0.5694444444416666</v>
       </c>
     </row>
     <row r="116" spans="1:26">
@@ -10187,7 +10223,7 @@
         <v>0</v>
       </c>
       <c r="Z116">
-        <v>0.5256410256384615</v>
+        <v>0.5694444444416666</v>
       </c>
     </row>
     <row r="117" spans="1:26">
@@ -10267,7 +10303,7 @@
         <v>0</v>
       </c>
       <c r="Z117">
-        <v>0.5256410256384615</v>
+        <v>0.5694444444416666</v>
       </c>
     </row>
     <row r="118" spans="1:26">
@@ -10347,7 +10383,7 @@
         <v>0</v>
       </c>
       <c r="Z118">
-        <v>0.5256410256384615</v>
+        <v>0.5694444444416666</v>
       </c>
     </row>
     <row r="119" spans="1:26">
@@ -10427,7 +10463,7 @@
         <v>0</v>
       </c>
       <c r="Z119">
-        <v>0.5256410256384615</v>
+        <v>0.5694444444416666</v>
       </c>
     </row>
     <row r="120" spans="1:26">
@@ -10507,7 +10543,7 @@
         <v>0</v>
       </c>
       <c r="Z120">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="121" spans="1:26">
@@ -10587,7 +10623,7 @@
         <v>0</v>
       </c>
       <c r="Z121">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="122" spans="1:26">
@@ -10667,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="Z122">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="123" spans="1:26">
@@ -10747,7 +10783,7 @@
         <v>0</v>
       </c>
       <c r="Z123">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="124" spans="1:26">
@@ -10827,7 +10863,7 @@
         <v>0</v>
       </c>
       <c r="Z124">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="125" spans="1:26">
@@ -10907,7 +10943,7 @@
         <v>0</v>
       </c>
       <c r="Z125">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="126" spans="1:26">
@@ -10987,7 +11023,7 @@
         <v>0</v>
       </c>
       <c r="Z126">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="127" spans="1:26">
@@ -11067,7 +11103,7 @@
         <v>0</v>
       </c>
       <c r="Z127">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="128" spans="1:26">
@@ -11147,7 +11183,7 @@
         <v>0</v>
       </c>
       <c r="Z128">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="129" spans="1:26">
@@ -11227,7 +11263,7 @@
         <v>0</v>
       </c>
       <c r="Z129">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="130" spans="1:26">
@@ -11307,7 +11343,7 @@
         <v>0</v>
       </c>
       <c r="Z130">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="131" spans="1:26">
@@ -11387,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="Z131">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="132" spans="1:26">
@@ -11467,7 +11503,7 @@
         <v>0</v>
       </c>
       <c r="Z132">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="133" spans="1:26">
@@ -11547,7 +11583,7 @@
         <v>0</v>
       </c>
       <c r="Z133">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="134" spans="1:26">
@@ -11627,7 +11663,7 @@
         <v>0</v>
       </c>
       <c r="Z134">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="135" spans="1:26">
@@ -11707,7 +11743,7 @@
         <v>0</v>
       </c>
       <c r="Z135">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="136" spans="1:26">
@@ -11787,7 +11823,7 @@
         <v>0</v>
       </c>
       <c r="Z136">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="137" spans="1:26">
@@ -11867,7 +11903,7 @@
         <v>0</v>
       </c>
       <c r="Z137">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="138" spans="1:26">
@@ -11947,7 +11983,7 @@
         <v>0</v>
       </c>
       <c r="Z138">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="139" spans="1:26">
@@ -12027,7 +12063,7 @@
         <v>0</v>
       </c>
       <c r="Z139">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="140" spans="1:26">
@@ -12107,7 +12143,7 @@
         <v>0</v>
       </c>
       <c r="Z140">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="141" spans="1:26">
@@ -12187,7 +12223,7 @@
         <v>0</v>
       </c>
       <c r="Z141">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="142" spans="1:26">
@@ -12267,7 +12303,7 @@
         <v>0</v>
       </c>
       <c r="Z142">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="143" spans="1:26">
@@ -12347,7 +12383,7 @@
         <v>0</v>
       </c>
       <c r="Z143">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="144" spans="1:26">
@@ -12427,7 +12463,7 @@
         <v>0</v>
       </c>
       <c r="Z144">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="145" spans="1:26">
@@ -12507,7 +12543,7 @@
         <v>0</v>
       </c>
       <c r="Z145">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="146" spans="1:26">
@@ -12587,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="Z146">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="147" spans="1:26">
@@ -12667,7 +12703,7 @@
         <v>0</v>
       </c>
       <c r="Z147">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="148" spans="1:26">
@@ -12747,7 +12783,7 @@
         <v>0</v>
       </c>
       <c r="Z148">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="149" spans="1:26">
@@ -12827,7 +12863,7 @@
         <v>0</v>
       </c>
       <c r="Z149">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="150" spans="1:26">
@@ -12907,7 +12943,7 @@
         <v>0</v>
       </c>
       <c r="Z150">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="151" spans="1:26">
@@ -12987,7 +13023,7 @@
         <v>0</v>
       </c>
       <c r="Z151">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="152" spans="1:26">
@@ -13067,7 +13103,7 @@
         <v>0</v>
       </c>
       <c r="Z152">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="153" spans="1:26">
@@ -13147,7 +13183,7 @@
         <v>0</v>
       </c>
       <c r="Z153">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="154" spans="1:26">
@@ -13227,7 +13263,7 @@
         <v>0</v>
       </c>
       <c r="Z154">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="155" spans="1:26">
@@ -13307,7 +13343,7 @@
         <v>0</v>
       </c>
       <c r="Z155">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="156" spans="1:26">
@@ -13387,7 +13423,7 @@
         <v>0</v>
       </c>
       <c r="Z156">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="157" spans="1:26">
@@ -13467,7 +13503,7 @@
         <v>0</v>
       </c>
       <c r="Z157">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="158" spans="1:26">
@@ -13547,7 +13583,7 @@
         <v>0</v>
       </c>
       <c r="Z158">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="159" spans="1:26">
@@ -13627,7 +13663,7 @@
         <v>0</v>
       </c>
       <c r="Z159">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="160" spans="1:26">
@@ -13707,7 +13743,7 @@
         <v>0</v>
       </c>
       <c r="Z160">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="161" spans="1:26">
@@ -13787,7 +13823,7 @@
         <v>0</v>
       </c>
       <c r="Z161">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="162" spans="1:26">
@@ -13867,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="Z162">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="163" spans="1:26">
@@ -13947,7 +13983,7 @@
         <v>0</v>
       </c>
       <c r="Z163">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="164" spans="1:26">
@@ -14027,7 +14063,7 @@
         <v>0</v>
       </c>
       <c r="Z164">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="165" spans="1:26">
@@ -14107,7 +14143,7 @@
         <v>0</v>
       </c>
       <c r="Z165">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="166" spans="1:26">
@@ -14187,7 +14223,7 @@
         <v>0</v>
       </c>
       <c r="Z166">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="167" spans="1:26">
@@ -14267,7 +14303,7 @@
         <v>0</v>
       </c>
       <c r="Z167">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="168" spans="1:26">
@@ -14347,7 +14383,7 @@
         <v>0</v>
       </c>
       <c r="Z168">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="169" spans="1:26">
@@ -14427,7 +14463,7 @@
         <v>0</v>
       </c>
       <c r="Z169">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="170" spans="1:26">
@@ -14507,7 +14543,7 @@
         <v>0</v>
       </c>
       <c r="Z170">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="171" spans="1:26">
@@ -14587,7 +14623,7 @@
         <v>0</v>
       </c>
       <c r="Z171">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="172" spans="1:26">
@@ -14667,7 +14703,7 @@
         <v>0</v>
       </c>
       <c r="Z172">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="173" spans="1:26">
@@ -14747,7 +14783,7 @@
         <v>0</v>
       </c>
       <c r="Z173">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="174" spans="1:26">
@@ -14827,7 +14863,7 @@
         <v>0</v>
       </c>
       <c r="Z174">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="175" spans="1:26">
@@ -14907,7 +14943,7 @@
         <v>0</v>
       </c>
       <c r="Z175">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="176" spans="1:26">
@@ -14987,7 +15023,7 @@
         <v>0</v>
       </c>
       <c r="Z176">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="177" spans="1:26">
@@ -15067,7 +15103,7 @@
         <v>0</v>
       </c>
       <c r="Z177">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="178" spans="1:26">
@@ -15147,7 +15183,7 @@
         <v>0</v>
       </c>
       <c r="Z178">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="179" spans="1:26">
@@ -15227,7 +15263,7 @@
         <v>0</v>
       </c>
       <c r="Z179">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="180" spans="1:26">
@@ -15307,7 +15343,7 @@
         <v>0</v>
       </c>
       <c r="Z180">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="181" spans="1:26">
@@ -15387,7 +15423,7 @@
         <v>0</v>
       </c>
       <c r="Z181">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="182" spans="1:26">
@@ -15467,7 +15503,7 @@
         <v>0</v>
       </c>
       <c r="Z182">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="183" spans="1:26">
@@ -15547,7 +15583,7 @@
         <v>0</v>
       </c>
       <c r="Z183">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="184" spans="1:26">
@@ -15627,7 +15663,7 @@
         <v>0</v>
       </c>
       <c r="Z184">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="185" spans="1:26">
@@ -15707,7 +15743,7 @@
         <v>0</v>
       </c>
       <c r="Z185">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="186" spans="1:26">
@@ -15787,7 +15823,7 @@
         <v>0</v>
       </c>
       <c r="Z186">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="187" spans="1:26">
@@ -15867,7 +15903,7 @@
         <v>0</v>
       </c>
       <c r="Z187">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="188" spans="1:26">
@@ -15947,7 +15983,7 @@
         <v>0</v>
       </c>
       <c r="Z188">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="189" spans="1:26">
@@ -16027,7 +16063,7 @@
         <v>0</v>
       </c>
       <c r="Z189">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="190" spans="1:26">
@@ -16107,7 +16143,7 @@
         <v>0</v>
       </c>
       <c r="Z190">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="191" spans="1:26">
@@ -16187,7 +16223,7 @@
         <v>0</v>
       </c>
       <c r="Z191">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="192" spans="1:26">
@@ -16267,7 +16303,7 @@
         <v>0</v>
       </c>
       <c r="Z192">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="193" spans="1:26">
@@ -16347,7 +16383,7 @@
         <v>0</v>
       </c>
       <c r="Z193">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="194" spans="1:26">
@@ -16427,7 +16463,7 @@
         <v>0</v>
       </c>
       <c r="Z194">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="195" spans="1:26">
@@ -16507,7 +16543,7 @@
         <v>0</v>
       </c>
       <c r="Z195">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="196" spans="1:26">
@@ -16587,7 +16623,7 @@
         <v>0</v>
       </c>
       <c r="Z196">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="197" spans="1:26">
@@ -16667,7 +16703,7 @@
         <v>0</v>
       </c>
       <c r="Z197">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="198" spans="1:26">
@@ -16747,7 +16783,7 @@
         <v>0</v>
       </c>
       <c r="Z198">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="199" spans="1:26">
@@ -16827,7 +16863,7 @@
         <v>0</v>
       </c>
       <c r="Z199">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="200" spans="1:26">
@@ -16907,7 +16943,7 @@
         <v>0</v>
       </c>
       <c r="Z200">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="201" spans="1:26">
@@ -16987,7 +17023,7 @@
         <v>0</v>
       </c>
       <c r="Z201">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="202" spans="1:26">
@@ -17067,7 +17103,7 @@
         <v>0</v>
       </c>
       <c r="Z202">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="203" spans="1:26">
@@ -17147,7 +17183,7 @@
         <v>0</v>
       </c>
       <c r="Z203">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="204" spans="1:26">
@@ -17227,7 +17263,7 @@
         <v>0</v>
       </c>
       <c r="Z204">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="205" spans="1:26">
@@ -17307,7 +17343,7 @@
         <v>0</v>
       </c>
       <c r="Z205">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="206" spans="1:26">
@@ -17387,7 +17423,7 @@
         <v>0</v>
       </c>
       <c r="Z206">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="207" spans="1:26">
@@ -17467,7 +17503,7 @@
         <v>0</v>
       </c>
       <c r="Z207">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="208" spans="1:26">
@@ -17547,7 +17583,7 @@
         <v>0</v>
       </c>
       <c r="Z208">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="209" spans="1:26">
@@ -17627,7 +17663,7 @@
         <v>0</v>
       </c>
       <c r="Z209">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="210" spans="1:26">
@@ -17707,7 +17743,7 @@
         <v>0</v>
       </c>
       <c r="Z210">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="211" spans="1:26">
@@ -17787,7 +17823,7 @@
         <v>0</v>
       </c>
       <c r="Z211">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="212" spans="1:26">
@@ -17867,7 +17903,7 @@
         <v>0</v>
       </c>
       <c r="Z212">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="213" spans="1:26">
@@ -17947,7 +17983,7 @@
         <v>0</v>
       </c>
       <c r="Z213">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="214" spans="1:26">
@@ -18027,7 +18063,7 @@
         <v>0</v>
       </c>
       <c r="Z214">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="215" spans="1:26">
@@ -18107,7 +18143,7 @@
         <v>0</v>
       </c>
       <c r="Z215">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="216" spans="1:26">
@@ -18187,7 +18223,7 @@
         <v>0</v>
       </c>
       <c r="Z216">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="217" spans="1:26">
@@ -18267,7 +18303,7 @@
         <v>0</v>
       </c>
       <c r="Z217">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="218" spans="1:26">
@@ -18347,7 +18383,7 @@
         <v>0</v>
       </c>
       <c r="Z218">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="219" spans="1:26">
@@ -18427,7 +18463,7 @@
         <v>0</v>
       </c>
       <c r="Z219">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="220" spans="1:26">
@@ -18507,7 +18543,7 @@
         <v>0</v>
       </c>
       <c r="Z220">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="221" spans="1:26">
@@ -18587,7 +18623,967 @@
         <v>0</v>
       </c>
       <c r="Z221">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="222" spans="1:26">
+      <c r="A222" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>1</v>
+      </c>
+      <c r="T222">
+        <v>1</v>
+      </c>
+      <c r="U222">
+        <v>1</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="223" spans="1:26">
+      <c r="A223" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>1</v>
+      </c>
+      <c r="T223">
+        <v>1</v>
+      </c>
+      <c r="U223">
+        <v>1</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="224" spans="1:26">
+      <c r="A224" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>1</v>
+      </c>
+      <c r="T224">
+        <v>1</v>
+      </c>
+      <c r="U224">
+        <v>1</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="225" spans="1:26">
+      <c r="A225" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>1</v>
+      </c>
+      <c r="T225">
+        <v>1</v>
+      </c>
+      <c r="U225">
+        <v>1</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="226" spans="1:26">
+      <c r="A226" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>1</v>
+      </c>
+      <c r="T226">
+        <v>1</v>
+      </c>
+      <c r="U226">
+        <v>1</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="227" spans="1:26">
+      <c r="A227" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>1</v>
+      </c>
+      <c r="T227">
+        <v>1</v>
+      </c>
+      <c r="U227">
+        <v>1</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="228" spans="1:26">
+      <c r="A228" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>1</v>
+      </c>
+      <c r="T228">
+        <v>1</v>
+      </c>
+      <c r="U228">
+        <v>1</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="229" spans="1:26">
+      <c r="A229" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>1</v>
+      </c>
+      <c r="T229">
+        <v>1</v>
+      </c>
+      <c r="U229">
+        <v>1</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="230" spans="1:26">
+      <c r="A230" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>1</v>
+      </c>
+      <c r="T230">
+        <v>1</v>
+      </c>
+      <c r="U230">
+        <v>1</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="231" spans="1:26">
+      <c r="A231" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>1</v>
+      </c>
+      <c r="T231">
+        <v>1</v>
+      </c>
+      <c r="U231">
+        <v>1</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="232" spans="1:26">
+      <c r="A232" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>1</v>
+      </c>
+      <c r="T232">
+        <v>1</v>
+      </c>
+      <c r="U232">
+        <v>1</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="233" spans="1:26">
+      <c r="A233" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>1</v>
+      </c>
+      <c r="T233">
+        <v>1</v>
+      </c>
+      <c r="U233">
+        <v>1</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0.4166666666666667</v>
       </c>
     </row>
   </sheetData>
